--- a/Emploi du temps.xlsx
+++ b/Emploi du temps.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>X</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t xml:space="preserve">github / digramme sysml / rapport </t>
+  </si>
+  <si>
+    <t>cfdsfv</t>
   </si>
 </sst>
 </file>
@@ -392,7 +395,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -485,6 +488,9 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
       <c r="E4" t="s">
         <v>0</v>
       </c>

--- a/Emploi du temps.xlsx
+++ b/Emploi du temps.xlsx
@@ -60,7 +60,7 @@
     <t xml:space="preserve">github / digramme sysml / rapport </t>
   </si>
   <si>
-    <t>cfdsfv</t>
+    <t>TUTO GIT HUB</t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
